--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartMachine.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartMachine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026F1095-F2BD-6A4D-BB77-1A74C8F7BD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F3965-81F3-344B-B71C-C399C9E7E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="3140" windowWidth="27940" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -502,7 +502,9 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartMachine.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartMachine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F3965-81F3-344B-B71C-C399C9E7E2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD74EC8-DE89-1E42-8873-A722DA57992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="3140" windowWidth="27940" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -47,9 +47,6 @@
     <t>OuterIP</t>
   </si>
   <si>
-    <t>WatcherPort</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>外网地址</t>
-  </si>
-  <si>
-    <t>守护进程端口</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -429,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -441,13 +435,12 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,82 +453,70 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="C9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
